--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -291,18 +291,12 @@
     <t>TEAM</t>
   </si>
   <si>
-    <t>WD(index,shop)</t>
-  </si>
-  <si>
     <t>WD(tracking order,wishlist)</t>
   </si>
   <si>
     <t>WD(product detail)</t>
   </si>
   <si>
-    <t>WD(checkout, cart)</t>
-  </si>
-  <si>
     <t>Nghĩa</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>wireframe synthesis and arrangement</t>
+  </si>
+  <si>
+    <t>WD( cart)</t>
+  </si>
+  <si>
+    <t>WD(index,shop,checkout)</t>
   </si>
 </sst>
 </file>
@@ -1049,29 +1049,8 @@
     <xf numFmtId="168" fontId="9" fillId="3" borderId="8" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
@@ -1092,8 +1071,29 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,94 +1747,94 @@
       <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="100">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="93">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="101"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="96"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="99">
+      <c r="K4" s="92">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99">
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99">
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99">
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
       <c r="K5" s="70">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2258,10 +2258,10 @@
       <c r="C9" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="80">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="D10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="101" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="80">
@@ -2393,7 +2393,7 @@
       <c r="D11" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="80">
         <v>1</v>
       </c>
@@ -2451,10 +2451,10 @@
       <c r="C12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="80">
         <v>0</v>
       </c>
@@ -2515,14 +2515,14 @@
       <c r="C13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="96" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="86">
         <f>$G$12</f>
@@ -2581,8 +2581,8 @@
       <c r="C14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="80">
         <v>0</v>
       </c>
@@ -2643,8 +2643,8 @@
       <c r="C15" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="80">
         <v>0</v>
       </c>
@@ -2702,12 +2702,12 @@
       <c r="C16" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="80">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G16" s="86">
         <f t="shared" si="4"/>
@@ -2763,10 +2763,10 @@
       <c r="C17" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="86">
         <f t="shared" si="4"/>
@@ -2820,12 +2820,12 @@
         <v>69</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="89"/>
+        <v>71</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="86">
         <f t="shared" si="4"/>
@@ -2876,15 +2876,15 @@
     <row r="19" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="89"/>
+        <v>80</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="97"/>
       <c r="F19" s="80">
         <v>0</v>
       </c>
@@ -2937,15 +2937,15 @@
     <row r="20" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="86">
         <f t="shared" si="4"/>
@@ -2996,15 +2996,15 @@
     <row r="21" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
+        <v>79</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="86">
         <f t="shared" si="4"/>
@@ -3054,11 +3054,11 @@
     </row>
     <row r="22" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
-      <c r="B22" s="102" t="s">
-        <v>79</v>
+      <c r="B22" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="82" t="s">
         <v>60</v>
@@ -4263,6 +4263,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -4272,13 +4279,6 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F42">
     <cfRule type="dataBar" priority="14">

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -315,10 +315,10 @@
     <t>wireframe synthesis and arrangement</t>
   </si>
   <si>
-    <t>WD( cart)</t>
-  </si>
-  <si>
-    <t>WD(index,shop,checkout)</t>
+    <t>WD( cart,checkout)</t>
+  </si>
+  <si>
+    <t>WD(index,shop)</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1052,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1069,30 +1093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,94 +1747,94 @@
       <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="93">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="101">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="94"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="92">
+      <c r="K4" s="100">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92">
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92">
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92">
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="K5" s="70">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2258,10 +2258,10 @@
       <c r="C9" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="80">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="D10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="94" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="80">
@@ -2393,7 +2393,7 @@
       <c r="D11" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="80">
         <v>1</v>
       </c>
@@ -2451,10 +2451,10 @@
       <c r="C12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="80">
         <v>0</v>
       </c>
@@ -2515,10 +2515,10 @@
       <c r="C13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="89" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="80">
@@ -2581,8 +2581,8 @@
       <c r="C14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="80">
         <v>0</v>
       </c>
@@ -2643,8 +2643,8 @@
       <c r="C15" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="97"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="80">
         <v>0</v>
       </c>
@@ -2702,12 +2702,12 @@
       <c r="C16" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="80">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="86">
         <f t="shared" si="4"/>
@@ -2763,8 +2763,8 @@
       <c r="C17" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="80">
         <v>1</v>
       </c>
@@ -2822,10 +2822,10 @@
       <c r="C18" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="97"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="86">
         <f t="shared" si="4"/>
@@ -2881,12 +2881,12 @@
       <c r="C19" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" si="4"/>
@@ -2942,8 +2942,8 @@
       <c r="C20" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="80">
         <v>1</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="C21" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="80">
         <v>1</v>
       </c>
@@ -4263,13 +4263,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -4279,6 +4272,13 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F42">
     <cfRule type="dataBar" priority="14">

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -1052,30 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1093,6 +1069,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,8 +1694,8 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,94 +1747,94 @@
       <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="101">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="93">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="97"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="100">
+      <c r="K4" s="92">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100">
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100">
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100">
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
       <c r="K5" s="70">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2258,10 +2258,10 @@
       <c r="C9" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="80">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="D10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="101" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="80">
@@ -2393,7 +2393,7 @@
       <c r="D11" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="95"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="80">
         <v>1</v>
       </c>
@@ -2451,10 +2451,10 @@
       <c r="C12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="80">
         <v>0</v>
       </c>
@@ -2515,10 +2515,10 @@
       <c r="C13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="96" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="80">
@@ -2581,10 +2581,10 @@
       <c r="C14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="86">
         <f t="shared" ref="G14:G21" si="4">$G$12</f>
@@ -2643,10 +2643,10 @@
       <c r="C15" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="86">
         <f t="shared" si="4"/>
@@ -2702,10 +2702,10 @@
       <c r="C16" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="80">
         <v>1</v>
       </c>
@@ -2763,8 +2763,8 @@
       <c r="C17" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="80">
         <v>1</v>
       </c>
@@ -2822,8 +2822,8 @@
       <c r="C18" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="80">
         <v>1</v>
       </c>
@@ -2881,12 +2881,12 @@
       <c r="C19" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="80">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" si="4"/>
@@ -2942,8 +2942,8 @@
       <c r="C20" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="80">
         <v>1</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="C21" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="80">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="80">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G22" s="86">
         <f>G21+2</f>
@@ -4263,6 +4263,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -4272,13 +4279,6 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F42">
     <cfRule type="dataBar" priority="14">

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -1052,6 +1052,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1069,30 +1093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,7 +1695,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,94 +1747,94 @@
       <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="93">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="101">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="94"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="92">
+      <c r="K4" s="100">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92">
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92">
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92">
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92">
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="100"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="K5" s="70">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2258,10 +2258,10 @@
       <c r="C9" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="100"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="80">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="D10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="94" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="80">
@@ -2393,7 +2393,7 @@
       <c r="D11" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="80">
         <v>1</v>
       </c>
@@ -2451,10 +2451,10 @@
       <c r="C12" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="80">
         <v>0</v>
       </c>
@@ -2515,10 +2515,10 @@
       <c r="C13" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="89" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="80">
@@ -2581,8 +2581,8 @@
       <c r="C14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="80">
         <v>1</v>
       </c>
@@ -2643,8 +2643,8 @@
       <c r="C15" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="97"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="80">
         <v>1</v>
       </c>
@@ -2702,10 +2702,10 @@
       <c r="C16" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="80">
         <v>1</v>
       </c>
@@ -2763,8 +2763,8 @@
       <c r="C17" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="80">
         <v>1</v>
       </c>
@@ -2822,8 +2822,8 @@
       <c r="C18" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="97"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="80">
         <v>1</v>
       </c>
@@ -2881,12 +2881,12 @@
       <c r="C19" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="80">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" si="4"/>
@@ -2942,8 +2942,8 @@
       <c r="C20" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="80">
         <v>1</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="C21" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="80">
         <v>1</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="80">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G22" s="86">
         <f>G21+2</f>
@@ -4263,13 +4263,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -4279,6 +4272,13 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F42">
     <cfRule type="dataBar" priority="14">

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B95D1-0A4F-4BA6-A5A4-3D1AC8235307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$G1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Task 3</t>
   </si>
@@ -320,11 +326,38 @@
   <si>
     <t>WD(index,shop)</t>
   </si>
+  <si>
+    <t>Wallet + Add new address</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logout, Register,forgot pass</t>
+  </si>
+  <si>
+    <t>19/3/2023</t>
+  </si>
+  <si>
+    <t>Acount, Login, Change Passwworrd</t>
+  </si>
+  <si>
+    <t>Tracking order,Wishlist, order list</t>
+  </si>
+  <si>
+    <t>13/3/2023</t>
+  </si>
+  <si>
+    <t>14/3/2023</t>
+  </si>
+  <si>
+    <t>18/3/2023</t>
+  </si>
+  <si>
+    <t>21/3/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -803,7 +836,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -841,20 +874,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,9 +973,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="11" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,12 +980,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="11" applyFill="1">
@@ -997,7 +1009,7 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,18 +1023,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
@@ -1034,9 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1051,30 +1048,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
@@ -1095,21 +1068,78 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1267,7 +1297,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1687,20 +1717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS45"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="42" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" customWidth="1"/>
     <col min="4" max="5" width="19.42578125" customWidth="1"/>
@@ -1714,10 +1744,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1"/>
@@ -1725,259 +1755,259 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="35"/>
+      <c r="H1" s="31"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="101">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="81">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="97"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="100">
+      <c r="K4" s="80">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100">
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100">
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100">
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100">
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="100"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="K5" s="70">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="K5" s="63">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="63">
         <f>K5+1</f>
         <v>44978</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="63">
         <f t="shared" ref="M5:AS5" si="0">L5+1</f>
         <v>44979</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="63">
         <f t="shared" si="0"/>
         <v>44980</v>
       </c>
-      <c r="O5" s="70">
+      <c r="O5" s="63">
         <f t="shared" si="0"/>
         <v>44981</v>
       </c>
-      <c r="P5" s="70">
+      <c r="P5" s="63">
         <f t="shared" si="0"/>
         <v>44982</v>
       </c>
-      <c r="Q5" s="70">
+      <c r="Q5" s="63">
         <f t="shared" si="0"/>
         <v>44983</v>
       </c>
-      <c r="R5" s="70">
+      <c r="R5" s="63">
         <f>Q5+1</f>
         <v>44984</v>
       </c>
-      <c r="S5" s="70">
+      <c r="S5" s="63">
         <f>R5+1</f>
         <v>44985</v>
       </c>
-      <c r="T5" s="70">
+      <c r="T5" s="63">
         <f t="shared" si="0"/>
         <v>44986</v>
       </c>
-      <c r="U5" s="70">
+      <c r="U5" s="63">
         <f t="shared" si="0"/>
         <v>44987</v>
       </c>
-      <c r="V5" s="70">
+      <c r="V5" s="63">
         <f t="shared" si="0"/>
         <v>44988</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W5" s="63">
         <f t="shared" si="0"/>
         <v>44989</v>
       </c>
-      <c r="X5" s="70">
+      <c r="X5" s="63">
         <f t="shared" si="0"/>
         <v>44990</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Y5" s="63">
         <f>X5+1</f>
         <v>44991</v>
       </c>
-      <c r="Z5" s="70">
+      <c r="Z5" s="63">
         <f>Y5+1</f>
         <v>44992</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="63">
         <f t="shared" si="0"/>
         <v>44993</v>
       </c>
-      <c r="AB5" s="70">
+      <c r="AB5" s="63">
         <f t="shared" si="0"/>
         <v>44994</v>
       </c>
-      <c r="AC5" s="70">
+      <c r="AC5" s="63">
         <f t="shared" si="0"/>
         <v>44995</v>
       </c>
-      <c r="AD5" s="70">
+      <c r="AD5" s="63">
         <f t="shared" si="0"/>
         <v>44996</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="63">
         <f t="shared" si="0"/>
         <v>44997</v>
       </c>
-      <c r="AF5" s="70">
+      <c r="AF5" s="63">
         <f>AE5+1</f>
         <v>44998</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AG5" s="63">
         <f>AF5+1</f>
         <v>44999</v>
       </c>
-      <c r="AH5" s="70">
+      <c r="AH5" s="63">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="63">
         <f t="shared" si="0"/>
         <v>45001</v>
       </c>
-      <c r="AJ5" s="70">
+      <c r="AJ5" s="63">
         <f t="shared" si="0"/>
         <v>45002</v>
       </c>
-      <c r="AK5" s="70">
+      <c r="AK5" s="63">
         <f t="shared" si="0"/>
         <v>45003</v>
       </c>
-      <c r="AL5" s="70">
+      <c r="AL5" s="63">
         <f t="shared" si="0"/>
         <v>45004</v>
       </c>
-      <c r="AM5" s="70">
+      <c r="AM5" s="63">
         <f>AL5+1</f>
         <v>45005</v>
       </c>
-      <c r="AN5" s="70">
+      <c r="AN5" s="63">
         <f>AM5+1</f>
         <v>45006</v>
       </c>
-      <c r="AO5" s="70">
+      <c r="AO5" s="63">
         <f t="shared" si="0"/>
         <v>45007</v>
       </c>
-      <c r="AP5" s="70">
+      <c r="AP5" s="63">
         <f t="shared" si="0"/>
         <v>45008</v>
       </c>
-      <c r="AQ5" s="70">
+      <c r="AQ5" s="63">
         <f t="shared" si="0"/>
         <v>45009</v>
       </c>
-      <c r="AR5" s="70">
+      <c r="AR5" s="63">
         <f t="shared" si="0"/>
         <v>45010</v>
       </c>
-      <c r="AS5" s="70">
+      <c r="AS5" s="63">
         <f t="shared" si="0"/>
         <v>45011</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2147,129 +2177,129 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="G7"/>
       <c r="J7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
     </row>
     <row r="8" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="str">
-        <f t="shared" ref="J8:J42" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="J8:J46" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
     </row>
     <row r="9" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="80">
+      <c r="E9" s="88"/>
+      <c r="F9" s="69">
         <v>1</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="74">
         <f>Project_Start</f>
         <v>44977</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="74">
         <f>G9+1</f>
         <v>44978</v>
       </c>
@@ -2278,66 +2308,66 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
     </row>
     <row r="10" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="69">
         <v>1</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="74">
         <f>H9</f>
         <v>44978</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="74">
         <f>G10</f>
         <v>44978</v>
       </c>
@@ -2346,123 +2376,123 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
     </row>
     <row r="11" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="80">
+      <c r="E11" s="90"/>
+      <c r="F11" s="69">
         <v>1</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="74">
         <f>H10</f>
         <v>44978</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="74">
         <f>G11+1</f>
         <v>44979</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
     </row>
     <row r="12" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="80">
+      <c r="E12" s="88"/>
+      <c r="F12" s="69">
         <v>0</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="74">
         <f>H11</f>
         <v>44979</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="74">
         <f>G12+3</f>
         <v>44982</v>
       </c>
@@ -2471,64 +2501,64 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
     </row>
     <row r="13" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="85" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="69">
         <v>1</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="74">
         <f>$G$12</f>
         <v>44979</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="74">
         <f>G13+2</f>
         <v>44981</v>
       </c>
@@ -2537,60 +2567,60 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
     </row>
     <row r="14" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="80">
+      <c r="D14" s="83"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="69">
         <v>1</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="74">
         <f t="shared" ref="G14:G21" si="4">$G$12</f>
         <v>44979</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="74">
         <f>G14+4</f>
         <v>44983</v>
       </c>
@@ -2599,592 +2629,592 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
     </row>
     <row r="15" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="85" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="80">
+      <c r="D15" s="83"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="69">
         <v>1</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="74">
         <f>G15+4</f>
         <v>44983</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
     </row>
     <row r="16" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="80">
+      <c r="E16" s="85"/>
+      <c r="F16" s="69">
         <v>1</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="74">
         <f>G16+4</f>
         <v>44983</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
     </row>
     <row r="17" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="85" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="80">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="69">
         <v>1</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="74">
         <f t="shared" ref="H17:H22" si="5">G17+2</f>
         <v>44981</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
     </row>
     <row r="18" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="80">
+      <c r="D18" s="86"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="69">
         <v>1</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="74">
         <f>G18+4</f>
         <v>44983</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
     </row>
     <row r="19" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="80">
+      <c r="E19" s="85"/>
+      <c r="F19" s="69">
         <v>1</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="74">
         <f>G19+4</f>
         <v>44983</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
     </row>
     <row r="20" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="80">
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="69">
         <v>1</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="74">
         <f>G20+2</f>
         <v>44981</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
     </row>
     <row r="21" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="80">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="69">
         <v>1</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="74">
         <f t="shared" si="4"/>
         <v>44979</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="74">
         <f t="shared" si="5"/>
         <v>44981</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
     </row>
     <row r="22" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="69">
         <v>1</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="74">
         <f>G21+2</f>
         <v>44981</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="74">
         <f t="shared" si="5"/>
         <v>44983</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
     </row>
     <row r="23" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
     </row>
     <row r="24" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="15">
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100">
         <v>0.5</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="101">
         <f>G14+1</f>
         <v>44980</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="101">
         <f>G24+4</f>
         <v>44984</v>
       </c>
@@ -3193,58 +3223,58 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
     </row>
     <row r="25" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="15">
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100">
         <v>0.5</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="101">
         <f>G24+2</f>
         <v>44982</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="101">
         <f>G25+5</f>
         <v>44987</v>
       </c>
@@ -3253,56 +3283,56 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
     </row>
     <row r="26" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="54">
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101">
         <f>H25</f>
         <v>44987</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="101">
         <f>G26+3</f>
         <v>44990</v>
       </c>
@@ -3311,56 +3341,56 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
     </row>
     <row r="27" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="54">
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101">
         <f>G26</f>
         <v>44987</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="101">
         <f>G27+2</f>
         <v>44989</v>
       </c>
@@ -3369,56 +3399,56 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
     </row>
     <row r="28" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="54">
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101">
         <f>G27</f>
         <v>44987</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="101">
         <f>G28+3</f>
         <v>44990</v>
       </c>
@@ -3427,677 +3457,675 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
     </row>
     <row r="29" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101">
+        <v>45141</v>
+      </c>
+      <c r="H29" s="101">
+        <v>45172</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+    </row>
+    <row r="30" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="85"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101">
+        <v>45202</v>
+      </c>
+      <c r="H30" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+    </row>
+    <row r="31" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="85"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="28"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+    </row>
+    <row r="32" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="86"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+    </row>
+    <row r="33" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="str">
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-    </row>
-    <row r="30" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="65" t="s">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+    </row>
+    <row r="34" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="55">
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="50">
         <f>G9+15</f>
         <v>44992</v>
       </c>
-      <c r="H30" s="55">
-        <f>G30+5</f>
+      <c r="H34" s="50">
+        <f>G34+5</f>
         <v>44997</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-    </row>
-    <row r="31" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="55">
-        <f>H30+1</f>
-        <v>44998</v>
-      </c>
-      <c r="H31" s="55">
-        <f>G31+4</f>
-        <v>45002</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-    </row>
-    <row r="32" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="55">
-        <f>G31+5</f>
-        <v>45003</v>
-      </c>
-      <c r="H32" s="55">
-        <f>G32+5</f>
-        <v>45008</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-    </row>
-    <row r="33" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="55">
-        <f>H32+1</f>
-        <v>45009</v>
-      </c>
-      <c r="H33" s="55">
-        <f>G33+4</f>
-        <v>45013</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-    </row>
-    <row r="34" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="55">
-        <f>G32</f>
-        <v>45003</v>
-      </c>
-      <c r="H34" s="55">
-        <f>G34+4</f>
-        <v>45007</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+    </row>
+    <row r="35" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-    </row>
-    <row r="35" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="50">
+        <f>H34+1</f>
+        <v>44998</v>
+      </c>
+      <c r="H35" s="50">
+        <f>G35+4</f>
+        <v>45002</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+    </row>
+    <row r="36" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="50">
+        <f>G35+5</f>
+        <v>45003</v>
+      </c>
+      <c r="H36" s="50">
+        <f>G36+5</f>
+        <v>45008</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="28"/>
+    </row>
+    <row r="37" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="50">
+        <f>H36+1</f>
+        <v>45009</v>
+      </c>
+      <c r="H37" s="50">
+        <f>G37+4</f>
+        <v>45013</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+    </row>
+    <row r="38" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="50">
+        <f>G36</f>
+        <v>45003</v>
+      </c>
+      <c r="H38" s="50">
+        <f>G38+4</f>
+        <v>45007</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+    </row>
+    <row r="39" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14" t="str">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-    </row>
-    <row r="36" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="66" t="s">
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+    </row>
+    <row r="40" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="56" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-    </row>
-    <row r="37" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-    </row>
-    <row r="38" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
-      <c r="B38" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-    </row>
-    <row r="39" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-    </row>
-    <row r="40" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="51" t="s">
         <v>32</v>
       </c>
       <c r="I40" s="14"/>
@@ -4105,164 +4133,396 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
     </row>
     <row r="41" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+    </row>
+    <row r="42" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+    </row>
+    <row r="43" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+    </row>
+    <row r="44" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+    </row>
+    <row r="45" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14" t="str">
+      <c r="B45" s="60"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-    </row>
-    <row r="42" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+    </row>
+    <row r="46" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31" t="str">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
-      <c r="AQ42" s="34"/>
-      <c r="AR42" s="34"/>
-      <c r="AS42" s="34"/>
-    </row>
-    <row r="43" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+    </row>
+    <row r="47" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
@@ -4272,15 +4532,8 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F42">
+  <conditionalFormatting sqref="F7:F46">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4294,12 +4547,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:AR42">
+  <conditionalFormatting sqref="K5:AR46">
     <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:AR42">
+  <conditionalFormatting sqref="K7:AR46">
     <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
@@ -4307,12 +4560,12 @@
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS5:AS42">
+  <conditionalFormatting sqref="AS5:AS46">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND(TODAY()&gt;=AS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS7:AS42">
+  <conditionalFormatting sqref="AS7:AS46">
     <cfRule type="expression" dxfId="1" priority="38">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
@@ -4321,12 +4574,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1" display="SIMPLE GANTT CHART by Vertex42.com"/>
+    <hyperlink ref="K1" r:id="rId1" display="SIMPLE GANTT CHART by Vertex42.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4335,7 +4588,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="H27 H31:H32 G32" formula="1"/>
+    <ignoredError sqref="H27 H35:H36 G36" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4353,7 +4606,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F7:F42</xm:sqref>
+          <xm:sqref>F7:F46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4362,101 +4615,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="32" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:2" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37"/>
-    </row>
-    <row r="3" spans="1:2" s="42" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:2" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="43"/>
-    </row>
-    <row r="4" spans="1:2" s="39" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="B3" s="39"/>
+    </row>
+    <row r="4" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="39" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="39" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="39" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DAA676-832D-45A6-B6AB-721C9A4E23EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -24,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -371,7 +361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -1033,28 +1023,79 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="8" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="12" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="8" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -1076,96 +1117,45 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="8" xfId="10" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="12" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="8" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1323,7 +1313,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1743,15 +1733,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1803,94 +1793,94 @@
       <c r="B3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="79">
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="96">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="95">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78">
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78">
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78">
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78">
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
       <c r="K5" s="46">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -2314,10 +2304,10 @@
       <c r="C9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="52">
         <v>1</v>
       </c>
@@ -2383,7 +2373,7 @@
       <c r="D10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="104" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="52">
@@ -2449,7 +2439,7 @@
       <c r="D11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="52">
         <v>1</v>
       </c>
@@ -2507,10 +2497,10 @@
       <c r="C12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="52">
         <v>0</v>
       </c>
@@ -2571,10 +2561,10 @@
       <c r="C13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="99" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="52">
@@ -2637,8 +2627,8 @@
       <c r="C14" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="67"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="52">
         <v>1</v>
       </c>
@@ -2699,8 +2689,8 @@
       <c r="C15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="67"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="52">
         <v>1</v>
       </c>
@@ -2758,10 +2748,10 @@
       <c r="C16" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="52">
         <v>1</v>
       </c>
@@ -2819,8 +2809,8 @@
       <c r="C17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="52">
         <v>1</v>
       </c>
@@ -2878,8 +2868,8 @@
       <c r="C18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="52">
         <v>1</v>
       </c>
@@ -2937,10 +2927,10 @@
       <c r="C19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="52">
         <v>1</v>
       </c>
@@ -2998,8 +2988,8 @@
       <c r="C20" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="52">
         <v>1</v>
       </c>
@@ -3057,8 +3047,8 @@
       <c r="C21" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="52">
         <v>1</v>
       </c>
@@ -3230,7 +3220,7 @@
       <c r="B24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="69" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="63"/>
@@ -3294,12 +3284,12 @@
       <c r="B25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3346,27 +3336,27 @@
       <c r="B26" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="93">
+      <c r="E26" s="68"/>
+      <c r="F26" s="73">
         <v>0.5</v>
       </c>
-      <c r="G26" s="94">
+      <c r="G26" s="74">
         <v>44993</v>
       </c>
-      <c r="H26" s="94">
-        <f>G26+1</f>
-        <v>44994</v>
+      <c r="H26" s="74">
+        <f>G26+5</f>
+        <v>44998</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3409,21 +3399,21 @@
       <c r="B27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="93">
+      <c r="D27" s="87"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="73">
         <v>0</v>
       </c>
-      <c r="G27" s="94">
+      <c r="G27" s="74">
         <f>H26+1</f>
-        <v>44995</v>
-      </c>
-      <c r="H27" s="94">
+        <v>44999</v>
+      </c>
+      <c r="H27" s="74">
         <f>G27+3</f>
-        <v>44998</v>
+        <v>45002</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13">
@@ -3471,18 +3461,18 @@
       <c r="B28" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="93">
+      <c r="D28" s="87"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="73">
         <v>0</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="75">
         <v>44999</v>
       </c>
-      <c r="H28" s="94">
+      <c r="H28" s="74">
         <f>G28+4</f>
         <v>45003</v>
       </c>
@@ -3532,19 +3522,19 @@
       <c r="B29" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="93">
+      <c r="D29" s="87"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="73">
         <v>0</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="74">
         <f>H28+1</f>
         <v>45004</v>
       </c>
-      <c r="H29" s="94">
+      <c r="H29" s="74">
         <f>G29+2</f>
         <v>45006</v>
       </c>
@@ -3594,20 +3584,20 @@
       <c r="B30" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="93">
+      <c r="E30" s="68"/>
+      <c r="F30" s="73">
         <v>0.8</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="74">
         <v>45019</v>
       </c>
-      <c r="H30" s="94">
+      <c r="H30" s="74">
         <f>G30+3</f>
         <v>45022</v>
       </c>
@@ -3657,18 +3647,18 @@
       <c r="B31" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="93">
+      <c r="D31" s="89"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="73">
         <v>0.4</v>
       </c>
-      <c r="G31" s="94">
+      <c r="G31" s="74">
         <v>45020</v>
       </c>
-      <c r="H31" s="94">
+      <c r="H31" s="74">
         <f t="shared" ref="H31:H36" si="6">G31+3</f>
         <v>45023</v>
       </c>
@@ -3715,18 +3705,18 @@
       <c r="B32" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="93">
+      <c r="D32" s="89"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="73">
         <v>0.4</v>
       </c>
-      <c r="G32" s="94">
+      <c r="G32" s="74">
         <v>45021</v>
       </c>
-      <c r="H32" s="94">
+      <c r="H32" s="74">
         <f t="shared" si="6"/>
         <v>45024</v>
       </c>
@@ -3773,18 +3763,18 @@
       <c r="B33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="93">
+      <c r="D33" s="90"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="73">
         <v>0.4</v>
       </c>
-      <c r="G33" s="94">
+      <c r="G33" s="74">
         <v>45022</v>
       </c>
-      <c r="H33" s="94">
+      <c r="H33" s="74">
         <f t="shared" si="6"/>
         <v>45025</v>
       </c>
@@ -3831,20 +3821,20 @@
       <c r="B34" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="67" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="93">
+      <c r="E34" s="68"/>
+      <c r="F34" s="73">
         <v>0.5</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="74">
         <v>45023</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="74">
         <f>G34+2</f>
         <v>45025</v>
       </c>
@@ -3891,18 +3881,18 @@
       <c r="B35" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="93">
+      <c r="D35" s="89"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="73">
         <v>0</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="74">
         <v>45027</v>
       </c>
-      <c r="H35" s="94">
+      <c r="H35" s="74">
         <f>G35+2</f>
         <v>45029</v>
       </c>
@@ -3949,19 +3939,19 @@
       <c r="B36" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="93">
+      <c r="D36" s="89"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="73">
         <v>0</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="74">
         <f>H35</f>
         <v>45029</v>
       </c>
-      <c r="H36" s="94">
+      <c r="H36" s="74">
         <f t="shared" si="6"/>
         <v>45032</v>
       </c>
@@ -4008,18 +3998,18 @@
       <c r="B37" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="93">
+      <c r="D37" s="89"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="73">
         <v>0</v>
       </c>
-      <c r="G37" s="94">
+      <c r="G37" s="74">
         <v>45031</v>
       </c>
-      <c r="H37" s="94">
+      <c r="H37" s="74">
         <f>G37+2</f>
         <v>45033</v>
       </c>
@@ -4066,18 +4056,18 @@
       <c r="B38" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="93">
+      <c r="D38" s="89"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="73">
         <v>0</v>
       </c>
-      <c r="G38" s="94">
+      <c r="G38" s="74">
         <v>45031</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="74">
         <f>G38+2</f>
         <v>45033</v>
       </c>
@@ -4124,18 +4114,18 @@
       <c r="B39" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="93">
+      <c r="D39" s="90"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="73">
         <v>0</v>
       </c>
-      <c r="G39" s="94">
+      <c r="G39" s="74">
         <v>45032</v>
       </c>
-      <c r="H39" s="94">
+      <c r="H39" s="74">
         <f>G39+1</f>
         <v>45033</v>
       </c>
@@ -4181,15 +4171,15 @@
       <c r="A40" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="100"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4233,20 +4223,20 @@
     </row>
     <row r="41" spans="1:45" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="105">
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85">
         <f>H39</f>
         <v>45033</v>
       </c>
-      <c r="H41" s="105">
+      <c r="H41" s="85">
         <f>G41+3</f>
         <v>45036</v>
       </c>
@@ -4361,18 +4351,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D12:E12"/>
@@ -4422,12 +4412,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1" display="SIMPLE GANTT CHART by Vertex42.com"/>
+    <hyperlink ref="K1" r:id="rId1" display="SIMPLE GANTT CHART by Vertex42.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4460,7 +4450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4551,10 +4541,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DAA676-832D-45A6-B6AB-721C9A4E23EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75311FE-EC59-4396-85EF-0F36A6400F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,6 +1083,15 @@
     <xf numFmtId="164" fontId="9" fillId="10" borderId="8" xfId="10" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,15 +1117,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1740,8 +1740,8 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1793,94 +1793,94 @@
       <c r="B3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="87">
         <f>DATE(2023,2,20)</f>
         <v>44977</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:45" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="86">
         <f>K5</f>
         <v>44977</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95">
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86">
         <f>R5</f>
         <v>44984</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95">
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86">
         <f>Y5</f>
         <v>44991</v>
       </c>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95">
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86">
         <f>AF5</f>
         <v>44998</v>
       </c>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95">
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86">
         <f>AM5</f>
         <v>45005</v>
       </c>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
       <c r="K5" s="46">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44977</v>
@@ -3339,12 +3339,12 @@
       <c r="C26" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="68"/>
       <c r="F26" s="73">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G26" s="74">
         <v>44993</v>
@@ -3402,7 +3402,7 @@
       <c r="C27" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="68"/>
       <c r="F27" s="73">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>44999</v>
       </c>
       <c r="H27" s="74">
-        <f>G27+3</f>
-        <v>45002</v>
+        <f>G27+2</f>
+        <v>45001</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -3464,17 +3464,17 @@
       <c r="C28" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="68"/>
       <c r="F28" s="73">
         <v>0</v>
       </c>
       <c r="G28" s="75">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="H28" s="74">
         <f>G28+4</f>
-        <v>45003</v>
+        <v>45005</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13">
@@ -3525,18 +3525,18 @@
       <c r="C29" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="68"/>
       <c r="F29" s="73">
         <v>0</v>
       </c>
       <c r="G29" s="74">
         <f>H28+1</f>
-        <v>45004</v>
+        <v>45006</v>
       </c>
       <c r="H29" s="74">
         <f>G29+2</f>
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13">
@@ -3587,7 +3587,7 @@
       <c r="C30" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D30" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="68"/>
@@ -3650,7 +3650,7 @@
       <c r="C31" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="89"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="68"/>
       <c r="F31" s="73">
         <v>0.4</v>
@@ -3708,7 +3708,7 @@
       <c r="C32" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="89"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="68"/>
       <c r="F32" s="73">
         <v>0.4</v>
@@ -3766,7 +3766,7 @@
       <c r="C33" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="90"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="68"/>
       <c r="F33" s="73">
         <v>0.4</v>
@@ -3824,7 +3824,7 @@
       <c r="C34" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="91" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="68"/>
@@ -3884,7 +3884,7 @@
       <c r="C35" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="89"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="68"/>
       <c r="F35" s="73">
         <v>0</v>
@@ -3942,7 +3942,7 @@
       <c r="C36" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="68"/>
       <c r="F36" s="73">
         <v>0</v>
@@ -4001,7 +4001,7 @@
       <c r="C37" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="68"/>
       <c r="F37" s="73">
         <v>0</v>
@@ -4059,7 +4059,7 @@
       <c r="C38" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="68"/>
       <c r="F38" s="73">
         <v>0</v>
@@ -4117,7 +4117,7 @@
       <c r="C39" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="90"/>
+      <c r="D39" s="93"/>
       <c r="E39" s="68"/>
       <c r="F39" s="73">
         <v>0</v>
@@ -4351,12 +4351,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="D26:D29"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="D34:D39"/>
@@ -4370,6 +4364,12 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E13:E21"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F42">
     <cfRule type="dataBar" priority="14">

--- a/2. Schedulers/1. Project Plan/timeline project plan.xlsx
+++ b/2. Schedulers/1. Project Plan/timeline project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75311FE-EC59-4396-85EF-0F36A6400F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F6BA8A-1622-48F2-88DF-302ABB73351C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,7 +1741,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="E26" s="68"/>
       <c r="F26" s="73">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G26" s="74">
         <v>44993</v>
@@ -3405,7 +3405,7 @@
       <c r="D27" s="90"/>
       <c r="E27" s="68"/>
       <c r="F27" s="73">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="74">
         <f>H26+1</f>
